--- a/NformTester/NformTester/keywordscripts/TST963_EditDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST963_EditDevice.xlsx
@@ -3946,19 +3946,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_1$</t>
+    <t>$SNMP_GXT_5$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_1_NAME$</t>
+    <t>$SNMP_GXT_5$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_5$</t>
+    <t>$SNMP_GXT_3$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$GXT_5$</t>
+    <t>$SNMP_GXT_3_NAME$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4909,7 +4909,7 @@
   <dimension ref="A1:O108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5173,7 +5173,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5461,7 +5461,7 @@
         <v>817</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -5635,7 +5635,7 @@
         <v>819</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -6325,7 +6325,7 @@
         <v>875</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>

--- a/NformTester/NformTester/keywordscripts/TST963_EditDevice.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST963_EditDevice.xlsx
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7541" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7541" uniqueCount="880">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3946,19 +3946,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_5$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_5$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_3$</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_3_NAME$</t>
+    <t>$SNMP_device_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3986,6 +3978,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3998,6 +3991,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4028,6 +4022,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4908,8 +4903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5173,7 +5168,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -5461,7 +5456,7 @@
         <v>817</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -5635,7 +5630,7 @@
         <v>819</v>
       </c>
       <c r="H24" s="14" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
